--- a/recruiters.xlsx
+++ b/recruiters.xlsx
@@ -1,26 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\email-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF381E0-3B62-4198-BCE3-BD319F25D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE972F68-2992-44B8-B66E-0C63F9294F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recruiters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{7118E2BE-F211-4A30-B88F-A8E72A9A8338}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{{381ebdce-169b-45eb-bb43-982f73a93f88.1712e767da974002.1585622450839}}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{3B498C26-C163-4D4B-A246-EBA7E86EEBCE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{{90efa405-806a-4762-b4ec-87aecdfcc26e.17129576d2195b9a.1585536528940}}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="636">
   <si>
     <t>Name</t>
   </si>
@@ -31,20 +67,1910 @@
     <t>Company</t>
   </si>
   <si>
+    <t>Himanshu Singh</t>
+  </si>
+  <si>
+    <t>himanshu.singh@milkbasket.com</t>
+  </si>
+  <si>
+    <t>Milkbasket</t>
+  </si>
+  <si>
+    <t>Harshit</t>
+  </si>
+  <si>
+    <t>harshit@intugine.com</t>
+  </si>
+  <si>
+    <t>Intugine Technologies</t>
+  </si>
+  <si>
+    <t>Dipti Lalwani</t>
+  </si>
+  <si>
+    <t>Ftcash</t>
+  </si>
+  <si>
+    <t>dipti.lalwani@ftcash.com</t>
+  </si>
+  <si>
+    <t>Muskan</t>
+  </si>
+  <si>
+    <t>muskan@thehosteller.com</t>
+  </si>
+  <si>
+    <t>The hosteller</t>
+  </si>
+  <si>
+    <t>Minakshi</t>
+  </si>
+  <si>
+    <t>Twimbit</t>
+  </si>
+  <si>
+    <t>minakshi@twimbit.com</t>
+  </si>
+  <si>
+    <t>Reeju Datta</t>
+  </si>
+  <si>
+    <t>reeju@cashfree.com</t>
+  </si>
+  <si>
+    <t>Cashfree</t>
+  </si>
+  <si>
+    <t>Himanshi Sharma</t>
+  </si>
+  <si>
+    <t>himanshi.sharma@fabhotels.com</t>
+  </si>
+  <si>
+    <t>Fabhotels</t>
+  </si>
+  <si>
+    <t>Amit Pancha</t>
+  </si>
+  <si>
+    <t>amit@allevents.in</t>
+  </si>
+  <si>
+    <t>All Events</t>
+  </si>
+  <si>
+    <t>Megha Sharma</t>
+  </si>
+  <si>
+    <t>megha.sharma@fabhotels.com</t>
+  </si>
+  <si>
+    <t>Mahesh Sharma</t>
+  </si>
+  <si>
+    <t>Iliv</t>
+  </si>
+  <si>
+    <t>mahesh@iLiv.in</t>
+  </si>
+  <si>
+    <t>Richa Singh</t>
+  </si>
+  <si>
+    <t>richa@yourdost.com</t>
+  </si>
+  <si>
+    <t>YourDOST</t>
+  </si>
+  <si>
+    <t>Ujjawal Chauhan</t>
+  </si>
+  <si>
+    <t>uc@skillbee.com</t>
+  </si>
+  <si>
+    <t>Skillbee</t>
+  </si>
+  <si>
+    <t>Pushkar Singh</t>
+  </si>
+  <si>
+    <t>LetsTransport</t>
+  </si>
+  <si>
+    <t>pushkar.singh@letstransport.team</t>
+  </si>
+  <si>
+    <t>Sarit Sethi</t>
+  </si>
+  <si>
+    <t>Sameer Nayar</t>
+  </si>
+  <si>
+    <t>BuildSupply</t>
+  </si>
+  <si>
+    <t>hardik.arora@buildsupply.com</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>abhi@starclinch.com</t>
+  </si>
+  <si>
+    <t>StarClinch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshay Mehrotra </t>
+  </si>
+  <si>
+    <t>Earlysalary</t>
+  </si>
+  <si>
+    <t>akshay@earlysalary.com</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>neha@znationlab.com</t>
+  </si>
+  <si>
+    <t>ZNation Lab</t>
+  </si>
+  <si>
+    <t>ruchika.beri@punchh.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruchika </t>
+  </si>
+  <si>
+    <t>Punchh</t>
+  </si>
+  <si>
+    <t>Raksha Kothari</t>
+  </si>
+  <si>
+    <t>rakshakothari.88@gmail.com</t>
+  </si>
+  <si>
+    <t>Go Desi</t>
+  </si>
+  <si>
+    <t>Ankit Bellani</t>
+  </si>
+  <si>
+    <t>ankit@thehappyllamas.com</t>
+  </si>
+  <si>
+    <t>The Happy Llamas</t>
+  </si>
+  <si>
+    <t>Siddhant Bhomia</t>
+  </si>
+  <si>
+    <t>TheKrishi</t>
+  </si>
+  <si>
+    <t>sid.bhomia@gmail.com</t>
+  </si>
+  <si>
+    <t>Dheer Lalit Gupta</t>
+  </si>
+  <si>
+    <t>lalit@greenbubbles.in</t>
+  </si>
+  <si>
+    <t>GreenBubbles</t>
+  </si>
+  <si>
+    <t>Pooja Sharma</t>
+  </si>
+  <si>
+    <t>Happay</t>
+  </si>
+  <si>
+    <t>poojasharma@happay.in</t>
+  </si>
+  <si>
+    <t>Sudhir kumar sinha</t>
+  </si>
+  <si>
+    <t>Inovogen Group</t>
+  </si>
+  <si>
+    <t>sudhir.inovogen@gmail.com</t>
+  </si>
+  <si>
+    <t>Rachana</t>
+  </si>
+  <si>
+    <t>rachana@intugine.com</t>
+  </si>
+  <si>
+    <t>hartej</t>
+  </si>
+  <si>
+    <t>hartej@linqq.io</t>
+  </si>
+  <si>
+    <t>LINQQ</t>
+  </si>
+  <si>
+    <t>Sayani</t>
+  </si>
+  <si>
+    <t>sayani@loadshare.net</t>
+  </si>
+  <si>
+    <t>Loadshare Networks</t>
+  </si>
+  <si>
+    <t>Thoufeer Muhammed</t>
+  </si>
+  <si>
+    <t>Machinser Technologies</t>
+  </si>
+  <si>
+    <t>thoufeer@machinser.com</t>
+  </si>
+  <si>
+    <t>Nithin Ashok</t>
+  </si>
+  <si>
+    <t>Goodera</t>
+  </si>
+  <si>
+    <t>nithin.ashok@goodera.com</t>
+  </si>
+  <si>
+    <t>Manan Dixit</t>
+  </si>
+  <si>
+    <t>manan.dixit@fidypay.com</t>
+  </si>
+  <si>
+    <t>FidyPay</t>
+  </si>
+  <si>
+    <t>Rahul Vidyarthi</t>
+  </si>
+  <si>
+    <t>rahul@medicento.com</t>
+  </si>
+  <si>
+    <t>Medicento</t>
+  </si>
+  <si>
+    <t>Mayank</t>
+  </si>
+  <si>
+    <t>mayank@zestmoney.in</t>
+  </si>
+  <si>
+    <t>Zestmoney</t>
+  </si>
+  <si>
+    <t>Vishal Kumar</t>
+  </si>
+  <si>
+    <t>Learning While Travelling</t>
+  </si>
+  <si>
+    <t>info@learningwhiletravelling.com</t>
+  </si>
+  <si>
+    <t>Gagan Mahajan</t>
+  </si>
+  <si>
+    <t>gagan.mahajan@grofers.com</t>
+  </si>
+  <si>
+    <t>Grofers</t>
+  </si>
+  <si>
+    <t>Kapil Pawar</t>
+  </si>
+  <si>
+    <t>Knowmad</t>
+  </si>
+  <si>
+    <t>kapil@knowmad.app</t>
+  </si>
+  <si>
+    <t>Rashmi Airon</t>
+  </si>
+  <si>
+    <t>rashmi.airon@1mg.com</t>
+  </si>
+  <si>
+    <t>1mg</t>
+  </si>
+  <si>
+    <t>Gaurav Sharma</t>
+  </si>
+  <si>
+    <t>gaurav@letsthankyou.com</t>
+  </si>
+  <si>
+    <t>Thankyou</t>
+  </si>
+  <si>
+    <t>Priyanka Rai</t>
+  </si>
+  <si>
+    <t>priyanka.rai@cleartax.in</t>
+  </si>
+  <si>
+    <t>Cleartax</t>
+  </si>
+  <si>
+    <t>Ravikiran Annaswamy</t>
+  </si>
+  <si>
+    <t>ravikiran.a@Numocity.com</t>
+  </si>
+  <si>
+    <t>Numocity Technologies</t>
+  </si>
+  <si>
+    <t>Mohit Bairathi</t>
+  </si>
+  <si>
+    <t>mohit.bairathi@milkbasket.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnu Menon </t>
+  </si>
+  <si>
+    <t>Pranav K</t>
+  </si>
+  <si>
+    <t>Hari G</t>
+  </si>
+  <si>
+    <t>Sruti Ramesh Chander</t>
+  </si>
+  <si>
+    <t>Wandertrails Services</t>
+  </si>
+  <si>
+    <t>hr@wandertrails.com</t>
+  </si>
+  <si>
+    <t>Minal Sharma</t>
+  </si>
+  <si>
+    <t>Delhivery</t>
+  </si>
+  <si>
+    <t>minal.sharma1@delhivery.com</t>
+  </si>
+  <si>
+    <t>Mr. subir Mukherjee</t>
+  </si>
+  <si>
+    <t>Saurabh Singh</t>
+  </si>
+  <si>
+    <t>Mark Mathias and Dr. Anil Prabhakar</t>
+  </si>
+  <si>
+    <t>Vilva Natarajan</t>
+  </si>
+  <si>
+    <t>Madhuri kumari</t>
+  </si>
+  <si>
+    <t>Mayank Kukreja</t>
+  </si>
+  <si>
+    <t>Tito Vatapilly</t>
+  </si>
+  <si>
+    <t>Rohan Rai Gupta</t>
+  </si>
+  <si>
+    <t>Naman Chopra</t>
+  </si>
+  <si>
+    <t>Ram Bhamidi</t>
+  </si>
+  <si>
+    <t>Mr. Yash Sanghvi</t>
+  </si>
+  <si>
+    <t>Akash Murthy</t>
+  </si>
+  <si>
+    <t>Rohit Nayak, Sudhir Deshpande</t>
+  </si>
+  <si>
+    <t>Greenlife Insurance Broking</t>
+  </si>
+  <si>
+    <t>FreshConnect Technologies</t>
+  </si>
+  <si>
+    <t>Ayasta Technologies</t>
+  </si>
+  <si>
+    <t>KiRaiPe</t>
+  </si>
+  <si>
+    <t>QuNu Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoryo Technologies </t>
+  </si>
+  <si>
+    <t>Manage Artworks</t>
+  </si>
+  <si>
+    <t>Macbell infotech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITILITE Technologies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auza Technologies </t>
+  </si>
+  <si>
+    <t>Rekop</t>
+  </si>
+  <si>
+    <t>Design Cafe</t>
+  </si>
+  <si>
+    <t>Bookmycarservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silversparro Technologies </t>
+  </si>
+  <si>
+    <t>Node Technologies</t>
+  </si>
+  <si>
+    <t>Homad</t>
+  </si>
+  <si>
+    <t>Beatest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rexnamo Electro </t>
+  </si>
+  <si>
+    <t>Circus Social</t>
+  </si>
+  <si>
+    <t>FYA Group</t>
+  </si>
+  <si>
+    <t>Nymble Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lattice Innovations </t>
+  </si>
+  <si>
+    <t>Euprime</t>
+  </si>
+  <si>
+    <t>JustDoc</t>
+  </si>
+  <si>
+    <t>Trell</t>
+  </si>
+  <si>
+    <t>Ecoad</t>
+  </si>
+  <si>
+    <t>Outbox</t>
+  </si>
+  <si>
+    <t>Buyhatke</t>
+  </si>
+  <si>
+    <t>hr@gibl.in</t>
+  </si>
+  <si>
+    <t>tarun.gupta@freshconnect.in</t>
+  </si>
+  <si>
+    <t>saideep@ayasta.com</t>
+  </si>
+  <si>
+    <t>saurabhsingh@kiraipe.com</t>
+  </si>
+  <si>
+    <t>snehal@qunulabs.in</t>
+  </si>
+  <si>
+    <t>pritam.bhat@yoryosolutions.com</t>
+  </si>
+  <si>
+    <t>sreenivas@karomi.com</t>
+  </si>
+  <si>
+    <t>madhuri@macbell.in</t>
+  </si>
+  <si>
+    <t>mayank@itilite.com</t>
+  </si>
+  <si>
+    <t>varma.s@auzatech.com</t>
+  </si>
+  <si>
+    <t>himanshu@rekop.app</t>
+  </si>
+  <si>
+    <t>ganesen@designcafe.com</t>
+  </si>
+  <si>
+    <t>renju@bookmycarservice.in</t>
+  </si>
+  <si>
+    <t>saahil.sachdeva@silversparro.com</t>
+  </si>
+  <si>
+    <t>tito@nodetech.in</t>
+  </si>
+  <si>
+    <t>rohan@thehomad.com</t>
+  </si>
+  <si>
+    <t>sayantan@beatest.in</t>
+  </si>
+  <si>
+    <t>naman@rexnamo.com</t>
+  </si>
+  <si>
+    <t>ram@circussocial.com</t>
+  </si>
+  <si>
+    <t>harshithafya@hotmail.com</t>
+  </si>
+  <si>
+    <t>raghav@nymble.in</t>
+  </si>
+  <si>
+    <t>chayan@thelattice.in</t>
+  </si>
+  <si>
+    <t>akash@euprime.org</t>
+  </si>
+  <si>
+    <t>sandeep@justdoc.com</t>
+  </si>
+  <si>
+    <t>akshay@trell.in</t>
+  </si>
+  <si>
+    <t>rohit@ecoad.in</t>
+  </si>
+  <si>
+    <t>kaushal@outboxsurprises.com</t>
+  </si>
+  <si>
+    <t>gauravdahake@buyhatke.com</t>
+  </si>
+  <si>
+    <t>Tarun Gupta</t>
+  </si>
+  <si>
+    <t>Saideep Reddy K</t>
+  </si>
+  <si>
+    <t>Pritam Bhat</t>
+  </si>
+  <si>
+    <t>Varma Siravuri</t>
+  </si>
+  <si>
+    <t>Himanshu Sharma</t>
+  </si>
+  <si>
+    <t>Shezaan Bhojani</t>
+  </si>
+  <si>
+    <t>Gita Ramanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renju S </t>
+  </si>
+  <si>
+    <t>Saahil Sachdev</t>
+  </si>
+  <si>
+    <t>Sayantan Chatterjee</t>
+  </si>
+  <si>
+    <t>Raghav Gupta</t>
+  </si>
+  <si>
+    <t>Chayan Chatterjee</t>
+  </si>
+  <si>
+    <t>Jugal Anchalia</t>
+  </si>
+  <si>
+    <t>Abhishek Kumar</t>
+  </si>
+  <si>
+    <t>Vikash Singh</t>
+  </si>
+  <si>
+    <t>Akshay Mehta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaushal Modi </t>
+  </si>
+  <si>
+    <t>Sukriti Agarwal</t>
+  </si>
+  <si>
+    <t>Gaurav Dahake</t>
+  </si>
+  <si>
+    <t>Arnab Ghosh</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Raghav</t>
+  </si>
+  <si>
     <t>Harsh</t>
   </si>
   <si>
-    <t>vshvz1110@gmail.com</t>
-  </si>
-  <si>
-    <t>KaamBack</t>
+    <t>Saideep</t>
+  </si>
+  <si>
+    <t>Mairalidhar</t>
+  </si>
+  <si>
+    <t>Sudhir</t>
+  </si>
+  <si>
+    <t>Shanu</t>
+  </si>
+  <si>
+    <t>Suman Jha</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>Vaibhav Jain</t>
+  </si>
+  <si>
+    <t>Sivareena</t>
+  </si>
+  <si>
+    <t>K Balaji</t>
+  </si>
+  <si>
+    <t>Ekta Jaju</t>
+  </si>
+  <si>
+    <t>Monika Shukla</t>
+  </si>
+  <si>
+    <t>Abhilash</t>
+  </si>
+  <si>
+    <t>Bhavik</t>
+  </si>
+  <si>
+    <t>Kapil</t>
+  </si>
+  <si>
+    <t>Prerna</t>
+  </si>
+  <si>
+    <t>Rohit Manglik</t>
+  </si>
+  <si>
+    <t>Aditya Prasad</t>
+  </si>
+  <si>
+    <t>Sachin Deshpande</t>
+  </si>
+  <si>
+    <t>Rahul Talreja</t>
+  </si>
+  <si>
+    <t>Deepanshu</t>
+  </si>
+  <si>
+    <t>Abhimanyu Dikshit</t>
+  </si>
+  <si>
+    <t>Olivia Goldstein</t>
+  </si>
+  <si>
+    <t>Sudhanshu Goyal</t>
+  </si>
+  <si>
+    <t>Berkeley Research Group</t>
+  </si>
+  <si>
+    <t>Voko</t>
+  </si>
+  <si>
+    <t>Ayasta Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Wellnesys</t>
+  </si>
+  <si>
+    <t>Typeset</t>
+  </si>
+  <si>
+    <t>Giscle</t>
+  </si>
+  <si>
+    <t>StartupFlux</t>
+  </si>
+  <si>
+    <t>PregBuddy</t>
+  </si>
+  <si>
+    <t>NayaGaadi</t>
+  </si>
+  <si>
+    <t>Onganic Foods</t>
+  </si>
+  <si>
+    <t>LetsEndorse</t>
+  </si>
+  <si>
+    <t>Elanic</t>
+  </si>
+  <si>
+    <t>Doselect</t>
+  </si>
+  <si>
+    <t>CollegeDoors</t>
+  </si>
+  <si>
+    <t>Daalchini</t>
+  </si>
+  <si>
+    <t>EduGorilla</t>
+  </si>
+  <si>
+    <t>XRIG</t>
+  </si>
+  <si>
+    <t>Erfinden Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Free Spirits Green Labs</t>
+  </si>
+  <si>
+    <t>Zappfresh</t>
+  </si>
+  <si>
+    <t>Guarented</t>
+  </si>
+  <si>
+    <t>RepHike</t>
+  </si>
+  <si>
+    <t>OhLook</t>
+  </si>
+  <si>
+    <t>ADmyBRAND</t>
+  </si>
+  <si>
+    <t>aghosh@thinkbrg.com</t>
+  </si>
+  <si>
+    <t>harsh@voko.in</t>
+  </si>
+  <si>
+    <t>muralidhars@wellnesys.com</t>
+  </si>
+  <si>
+    <t>shanukumar@typeset.io</t>
+  </si>
+  <si>
+    <t>suman@giscle.com</t>
+  </si>
+  <si>
+    <t>learningwhiletravelling@gmail.com</t>
+  </si>
+  <si>
+    <t>vaibhav@startupflux.com</t>
+  </si>
+  <si>
+    <t>reena@pregbuddy.com</t>
+  </si>
+  <si>
+    <t>kbalaji@nayagaadi.com</t>
+  </si>
+  <si>
+    <t>ekta@onganic.in</t>
+  </si>
+  <si>
+    <t>monika@letsendorse.com</t>
+  </si>
+  <si>
+    <t>abhilash@elanic.in</t>
+  </si>
+  <si>
+    <t>bhavik@doselect.com</t>
+  </si>
+  <si>
+    <t>kapil@collegedoors.com</t>
+  </si>
+  <si>
+    <t>prerna@daalchini.co.in</t>
+  </si>
+  <si>
+    <t>rohit@edugorilla.com</t>
+  </si>
+  <si>
+    <t>ceo@xrig.io</t>
+  </si>
+  <si>
+    <t>sachin@innobytes.in</t>
+  </si>
+  <si>
+    <t>rahul@freespirits.in</t>
+  </si>
+  <si>
+    <t>deepanshu@zappfresh.com</t>
+  </si>
+  <si>
+    <t>abhimanyu@guarented.com</t>
+  </si>
+  <si>
+    <t>olivia@rephike.com</t>
+  </si>
+  <si>
+    <t>careers@ohlook.in</t>
+  </si>
+  <si>
+    <t>sudhanshu@chikoop.com</t>
+  </si>
+  <si>
+    <t>Arshad Azad</t>
+  </si>
+  <si>
+    <t>Armaan Azaad</t>
+  </si>
+  <si>
+    <t>Accel Partners</t>
+  </si>
+  <si>
+    <t>siliconvalley@accel.com</t>
+  </si>
+  <si>
+    <t>saloni.singh@affineanalytics.com</t>
+  </si>
+  <si>
+    <t>Affine Analytics</t>
+  </si>
+  <si>
+    <t>satish@algoengines.com</t>
+  </si>
+  <si>
+    <t>AlgoEngines</t>
+  </si>
+  <si>
+    <t>Rashmit Das</t>
+  </si>
+  <si>
+    <t>rhythmiitkgp@gmail.com</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>vaishali.ghai@premierlogic.com</t>
+  </si>
+  <si>
+    <t>Aviyos</t>
+  </si>
+  <si>
+    <t>Akshay Chalikwar</t>
+  </si>
+  <si>
+    <t>aschalikwar@gmail.com</t>
+  </si>
+  <si>
+    <t>Bertelsmann India Investments</t>
+  </si>
+  <si>
+    <t>sanam@blume.vc</t>
+  </si>
+  <si>
+    <t>Blume Ventures</t>
+  </si>
+  <si>
+    <t>Anjaney Vatsal</t>
+  </si>
+  <si>
+    <t>anjaney.iitkgp@gmail.com</t>
+  </si>
+  <si>
+    <t>Capillary Technologies</t>
+  </si>
+  <si>
+    <t>sayantan@capzest.com</t>
+  </si>
+  <si>
+    <t>Capzest</t>
+  </si>
+  <si>
+    <t>rohan@capzest.com</t>
+  </si>
+  <si>
+    <t>Clustr</t>
+  </si>
+  <si>
+    <t>anshula.sharma@delhivery.com</t>
+  </si>
+  <si>
+    <t>sjoshi@teamdrg.com</t>
+  </si>
+  <si>
+    <t>DRG Analytics</t>
+  </si>
+  <si>
+    <t>abhijith.krishnamurthy@equifax.com</t>
+  </si>
+  <si>
+    <t>Equifax corp</t>
+  </si>
+  <si>
+    <t>umesh.mukouth@evry.com</t>
+  </si>
+  <si>
+    <t>Evry India</t>
+  </si>
+  <si>
+    <t>info@fidelityindiacapital.com</t>
+  </si>
+  <si>
+    <t>Fidelity Growth Partners</t>
+  </si>
+  <si>
+    <t>Piyush Mayank</t>
+  </si>
+  <si>
+    <t>piyush.mayank1@gmail.com</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Bhaskar Krishnan</t>
+  </si>
+  <si>
+    <t>s_bhas@yahoo.com</t>
+  </si>
+  <si>
+    <t>vishesh.totla@gmail.com</t>
+  </si>
+  <si>
+    <t>Fractal analytics</t>
+  </si>
+  <si>
+    <t>nishantd@fractalanalytics.com</t>
+  </si>
+  <si>
+    <t>Fractal Analytics</t>
+  </si>
+  <si>
+    <t>kh.ankit@gmail.com</t>
+  </si>
+  <si>
+    <t>Freecharge</t>
+  </si>
+  <si>
+    <t>Sangita@furlenco.com</t>
+  </si>
+  <si>
+    <t>Furlenco</t>
+  </si>
+  <si>
+    <t>Ajith Mohan Karimpan</t>
+  </si>
+  <si>
+    <t>ajith@furlenco.com</t>
+  </si>
+  <si>
+    <t>Nitesh Mohandas</t>
+  </si>
+  <si>
+    <t>nitesh323@gmail.com</t>
+  </si>
+  <si>
+    <t>sribala.varadharajan@global-analytics.com</t>
+  </si>
+  <si>
+    <t>Global Analytics</t>
+  </si>
+  <si>
+    <t>harish.raghavan@global-analytics.com</t>
+  </si>
+  <si>
+    <t>soubhagya@grayroutes.in</t>
+  </si>
+  <si>
+    <t>Grayroutes</t>
+  </si>
+  <si>
+    <t>sapna@grayroutes.in</t>
+  </si>
+  <si>
+    <t>abhishek.saxena@hdfcbank.com</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Contact@helionvc.com</t>
+  </si>
+  <si>
+    <t>Helion VC</t>
+  </si>
+  <si>
+    <t>Ashish Gupta</t>
+  </si>
+  <si>
+    <t>Helion Venture Partners, LLC</t>
+  </si>
+  <si>
+    <t>pankaj_gyl777@yahoo.in</t>
+  </si>
+  <si>
+    <t>HnG Innovation Private Limited</t>
+  </si>
+  <si>
+    <t>adhu354@gmail.com</t>
+  </si>
+  <si>
+    <t>Housing.com</t>
+  </si>
+  <si>
+    <t>Contact@idgvcindia.com</t>
+  </si>
+  <si>
+    <t>IDG Ventures</t>
+  </si>
+  <si>
+    <t>Sanjay Verma</t>
+  </si>
+  <si>
+    <t>sverma@iimahd.ernet.in</t>
+  </si>
+  <si>
+    <t>IIMA</t>
+  </si>
+  <si>
+    <t>Ankur Sinha</t>
+  </si>
+  <si>
+    <t>asinha@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Arnab Laha</t>
+  </si>
+  <si>
+    <t>arnab@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Chetan Soman</t>
+  </si>
+  <si>
+    <t>chetan@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Debjit Roy</t>
+  </si>
+  <si>
+    <t>debjit@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Dhiman Bhadra</t>
+  </si>
+  <si>
+    <t>dhiman@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Diptesh Ghosh</t>
+  </si>
+  <si>
+    <t>diptesh@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Goutam dutta</t>
+  </si>
+  <si>
+    <t>goutam@iima.ac.in</t>
+  </si>
+  <si>
+    <t>N Ravichandran</t>
+  </si>
+  <si>
+    <t>nravi@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Sachin Jayaswal</t>
+  </si>
+  <si>
+    <t>sachin@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Prahalad</t>
+  </si>
+  <si>
+    <t>prahalad@iima.ac.in</t>
+  </si>
+  <si>
+    <t>Saral Mukherjee</t>
+  </si>
+  <si>
+    <t>saralm@iima.ac.in</t>
+  </si>
+  <si>
+    <t>diatha@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>IIMB</t>
+  </si>
+  <si>
+    <t>Amar Sapra</t>
+  </si>
+  <si>
+    <t>amar@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>Rajeev Tripathi</t>
+  </si>
+  <si>
+    <t>rajeev.tripathi@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>Srinivasan Rangan</t>
+  </si>
+  <si>
+    <t>srinivasanr@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>U Dinesh Kumar</t>
+  </si>
+  <si>
+    <t>dineshk@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>Pulak Ghosh</t>
+  </si>
+  <si>
+    <t>pulak.ghosh@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>S Ramesh Kumar</t>
+  </si>
+  <si>
+    <t>rkumar@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>Sreelata Jonnalagedda</t>
+  </si>
+  <si>
+    <t>sreelata@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>Avinash G Mulky</t>
+  </si>
+  <si>
+    <t>avinashgm@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>Sourav Mukherji</t>
+  </si>
+  <si>
+    <t>souravm@iimb.ac.in</t>
+  </si>
+  <si>
+    <t>Dr Ritesh Malik</t>
+  </si>
+  <si>
+    <t>ritesh_radix@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Innov8</t>
+  </si>
+  <si>
+    <t>sathish kuma</t>
+  </si>
+  <si>
+    <t>obliin@yahoo.com</t>
+  </si>
+  <si>
+    <t>innov8</t>
+  </si>
+  <si>
+    <t>Balaji Viswanathan</t>
+  </si>
+  <si>
+    <t>careers@invento.tech</t>
+  </si>
+  <si>
+    <t>Invento Tech</t>
+  </si>
+  <si>
+    <t>mangala@inventuscap.com</t>
+  </si>
+  <si>
+    <t>Inventus cap partners</t>
+  </si>
+  <si>
+    <t>Parag Dhol</t>
+  </si>
+  <si>
+    <t>parag@inventuscap.com</t>
+  </si>
+  <si>
+    <t>Inventus Capital Partners</t>
+  </si>
+  <si>
+    <t>Nidhi Gupta</t>
+  </si>
+  <si>
+    <t>nidhi@inventusindia.com</t>
+  </si>
+  <si>
+    <t>Bitan Chakraborty</t>
+  </si>
+  <si>
+    <t>bitan_chakraborty@isb.edu</t>
+  </si>
+  <si>
+    <t>ISB</t>
+  </si>
+  <si>
+    <t>Tanuka Ghoshal</t>
+  </si>
+  <si>
+    <t>Tanuka_Ghoshal@isb.edu</t>
+  </si>
+  <si>
+    <t>Siddharth Shekhar Singh</t>
+  </si>
+  <si>
+    <t>Siddharth_Singh@isb.edu</t>
+  </si>
+  <si>
+    <t>Gautham Kanthasamy</t>
+  </si>
+  <si>
+    <t>Gautham_Kanthasamy@isb.edu</t>
+  </si>
+  <si>
+    <t>S V Ravi Chandra</t>
+  </si>
+  <si>
+    <t>ravi_chandra@isb.edu</t>
+  </si>
+  <si>
+    <t>Satyarth Priyedarshi</t>
+  </si>
+  <si>
+    <t>satyarth@gmail.com</t>
+  </si>
+  <si>
+    <t>Jio</t>
+  </si>
+  <si>
+    <t>amit@jungle-ventures.com</t>
+  </si>
+  <si>
+    <t>Jungle Ventures</t>
+  </si>
+  <si>
+    <t>Kalaari Capital</t>
+  </si>
+  <si>
+    <t>Akshay Kothari</t>
+  </si>
+  <si>
+    <t>akothari@linkedIn.com</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>dhruvil.sanghvi@loginextsolutions.com</t>
+  </si>
+  <si>
+    <t>Loginext solutions</t>
+  </si>
+  <si>
+    <t>shashanks@magicpin.in</t>
+  </si>
+  <si>
+    <t>MagicPin</t>
+  </si>
+  <si>
+    <t>Matrix Partners</t>
+  </si>
+  <si>
+    <t>swarnima.mor@mobikwik.com</t>
+  </si>
+  <si>
+    <t>MobiKwik</t>
+  </si>
+  <si>
+    <t>Ramya Segar</t>
+  </si>
+  <si>
+    <t>ramya.d@myntra.com</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>Niraj Seth</t>
+  </si>
+  <si>
+    <t>niraj3seth@gmail.com</t>
+  </si>
+  <si>
+    <t>Naukri.com</t>
+  </si>
+  <si>
+    <t>Ankur Warikoo</t>
+  </si>
+  <si>
+    <t>warikoo@gmail.com</t>
+  </si>
+  <si>
+    <t>nearbuy.com</t>
+  </si>
+  <si>
+    <t>Ashray Iyengar</t>
+  </si>
+  <si>
+    <t>ashraya.iyengar@gmail.com</t>
+  </si>
+  <si>
+    <t>Nexus Venture Partners</t>
+  </si>
+  <si>
+    <t>jobs@nihilentanalytics.com</t>
+  </si>
+  <si>
+    <t>Nihilent analytics</t>
+  </si>
+  <si>
+    <t>hiran.suvrat@gmail.com</t>
+  </si>
+  <si>
+    <t>Noodle.ai</t>
+  </si>
+  <si>
+    <t>saran.kumar@olacabs.com</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Pranav Kumar</t>
+  </si>
+  <si>
+    <t>pranavcera@gmail.com</t>
+  </si>
+  <si>
+    <t>Sneha Tiguti</t>
+  </si>
+  <si>
+    <t>tigutisneha@gmail.com</t>
+  </si>
+  <si>
+    <t>Ola (ANI Technologies Pvt. Ltd)</t>
+  </si>
+  <si>
+    <t>aditya.jain@olacabs.com</t>
+  </si>
+  <si>
+    <t>Ola Cab</t>
+  </si>
+  <si>
+    <t>Gaurav Aggarwal</t>
+  </si>
+  <si>
+    <t>gaurav.aggarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>Ola Marketplace</t>
+  </si>
+  <si>
+    <t>Mridul Kabra</t>
+  </si>
+  <si>
+    <t>kabra.mridul@gmail.com</t>
+  </si>
+  <si>
+    <t>Orios Venture Partners</t>
+  </si>
+  <si>
+    <t>Pranav Agrawal</t>
+  </si>
+  <si>
+    <t>pranav.agrawal@oyorooms.com</t>
+  </si>
+  <si>
+    <t>OYO</t>
+  </si>
+  <si>
+    <t>Abhinav Sinha</t>
+  </si>
+  <si>
+    <t>abhinav@oyorooms.com</t>
+  </si>
+  <si>
+    <t>Sachidanand K S</t>
+  </si>
+  <si>
+    <t>ks.sachidanand@gmail.com</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t>sudhanshu@paytm.com</t>
+  </si>
+  <si>
+    <t>PayTM</t>
+  </si>
+  <si>
+    <t>Pulkit Jain</t>
+  </si>
+  <si>
+    <t>pulkitjain5888@gmail.com</t>
+  </si>
+  <si>
+    <t>Shikhar Mishra</t>
+  </si>
+  <si>
+    <t>Shikhar.mishra@paytm.com</t>
+  </si>
+  <si>
+    <t>Amrish Rau</t>
+  </si>
+  <si>
+    <t>amrishrau@hotmail.com</t>
+  </si>
+  <si>
+    <t>PayU India</t>
+  </si>
+  <si>
+    <t>Palak Jain</t>
+  </si>
+  <si>
+    <t>palak@playment.io</t>
+  </si>
+  <si>
+    <t>Playment</t>
+  </si>
+  <si>
+    <t>Siddharth Mall</t>
+  </si>
+  <si>
+    <t>siddharthmall05@gmail.com</t>
+  </si>
+  <si>
+    <t>reshma.ravindran@in.pwc.com</t>
+  </si>
+  <si>
+    <t>PWC</t>
+  </si>
+  <si>
+    <t>sumit@pylonmc.com</t>
+  </si>
+  <si>
+    <t>Pylon Management Consult</t>
+  </si>
+  <si>
+    <t>Swapna Gupta</t>
+  </si>
+  <si>
+    <t>swapna@qualcommventures.com</t>
+  </si>
+  <si>
+    <t>Qualcomm Ventures</t>
+  </si>
+  <si>
+    <t>Praveen Balireddy</t>
+  </si>
+  <si>
+    <t>praveen.balireddy@quantium.com.au</t>
+  </si>
+  <si>
+    <t>Quantium</t>
+  </si>
+  <si>
+    <t>Bharath T</t>
+  </si>
+  <si>
+    <t>bharath@rapido.bike</t>
+  </si>
+  <si>
+    <t>Rapido</t>
+  </si>
+  <si>
+    <t>hr@realbox.in</t>
+  </si>
+  <si>
+    <t>Realbox Data Analytics</t>
+  </si>
+  <si>
+    <t>Arnav Kumar</t>
+  </si>
+  <si>
+    <t>arnav.ll@gmail.com</t>
+  </si>
+  <si>
+    <t>SAIF Partners</t>
+  </si>
+  <si>
+    <t>info@saifpartners.com</t>
+  </si>
+  <si>
+    <t>Saif Partners</t>
+  </si>
+  <si>
+    <t>Arun Rangamani</t>
+  </si>
+  <si>
+    <t>arun.rangamani@gmail.com</t>
+  </si>
+  <si>
+    <t>SCIO health Analytics</t>
+  </si>
+  <si>
+    <t>Shailesh</t>
+  </si>
+  <si>
+    <t>shailesh@sequoiacap.com</t>
+  </si>
+  <si>
+    <t>Sequoia Capital India</t>
+  </si>
+  <si>
+    <t>Prashant Chothe</t>
+  </si>
+  <si>
+    <t>prashant.chothe@sganalytics.com</t>
+  </si>
+  <si>
+    <t>SG Analytics</t>
+  </si>
+  <si>
+    <t>Alok Goyal</t>
+  </si>
+  <si>
+    <t>contact@stellarisvp.com</t>
+  </si>
+  <si>
+    <t>Stellaris Venture Partners</t>
+  </si>
+  <si>
+    <t>Rahul Chowdhri</t>
+  </si>
+  <si>
+    <t>rchowdhri@gmail.com</t>
+  </si>
+  <si>
+    <t>Girish Menon</t>
+  </si>
+  <si>
+    <t>bluearmy911@gmail.com</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>anuj@anujrathi.com</t>
+  </si>
+  <si>
+    <t>Sriharsha Majety</t>
+  </si>
+  <si>
+    <t>majetys2011@email.iimcal.ac.in</t>
+  </si>
+  <si>
+    <t>Sahil Vaidya</t>
+  </si>
+  <si>
+    <t>sahil.cob@gmail.com</t>
+  </si>
+  <si>
+    <t>The Mimimalist</t>
+  </si>
+  <si>
+    <t>recruiting@tigeranalytics.com</t>
+  </si>
+  <si>
+    <t>Tiger Analytics</t>
+  </si>
+  <si>
+    <t>tlabs@tlabs.in</t>
+  </si>
+  <si>
+    <t>tLabs</t>
+  </si>
+  <si>
+    <t>Pankaj</t>
+  </si>
+  <si>
+    <t>pankaj@traveltriangle.com</t>
+  </si>
+  <si>
+    <t>Travel Triangle</t>
+  </si>
+  <si>
+    <t>career@trendwiseanalytics.com</t>
+  </si>
+  <si>
+    <t>Nitin Nair</t>
+  </si>
+  <si>
+    <t>nitin.s.nair@gmail.com</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>vguduguntla@uber.com</t>
+  </si>
+  <si>
+    <t>Abhay Kumar</t>
+  </si>
+  <si>
+    <t>abhay.kumar@udaan.com</t>
+  </si>
+  <si>
+    <t>Udaan</t>
+  </si>
+  <si>
+    <t>Sneha Roy</t>
+  </si>
+  <si>
+    <t>sneha.r.23@gmail.com</t>
+  </si>
+  <si>
+    <t>Urban Ladder</t>
+  </si>
+  <si>
+    <t>Reetika Choudhary</t>
+  </si>
+  <si>
+    <t>reetika.choudhary0@gmail.com</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>careers@grayroutes.in</t>
+  </si>
+  <si>
+    <t>Web Greay routes</t>
+  </si>
+  <si>
+    <t>reachankitarora@gmail.com</t>
+  </si>
+  <si>
+    <t>Ankit Arora</t>
+  </si>
+  <si>
+    <t>Accel Team</t>
+  </si>
+  <si>
+    <t>Saloni Singh</t>
+  </si>
+  <si>
+    <t>Satish</t>
+  </si>
+  <si>
+    <t>Vaishali</t>
+  </si>
+  <si>
+    <t>Saman</t>
+  </si>
+  <si>
+    <t>Sayantan</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Rashmi</t>
+  </si>
+  <si>
+    <t>Anshula Sharma</t>
+  </si>
+  <si>
+    <t>DRG Analytics Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijith </t>
+  </si>
+  <si>
+    <t>Umesh</t>
+  </si>
+  <si>
+    <t>Fidelity Growth Partners Team</t>
+  </si>
+  <si>
+    <t>Vishesh</t>
+  </si>
+  <si>
+    <t>Nishant</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Sangita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sribala </t>
+  </si>
+  <si>
+    <t>Harish Raghavan</t>
+  </si>
+  <si>
+    <t>Grayroutes Team</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>Abhishek Saxena</t>
+  </si>
+  <si>
+    <t>Helion VC Team</t>
+  </si>
+  <si>
+    <t>ashish@helionvc.com</t>
+  </si>
+  <si>
+    <t>Housing Team</t>
+  </si>
+  <si>
+    <t>IDG Ventures Team</t>
+  </si>
+  <si>
+    <t>Inventus Capital Partners Team</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>rajesh@kalaari.com</t>
+  </si>
+  <si>
+    <t>info@kalaari.com</t>
+  </si>
+  <si>
+    <t>Kalaari Capital Team</t>
+  </si>
+  <si>
+    <t>Dhruvil</t>
+  </si>
+  <si>
+    <t>Shashank</t>
+  </si>
+  <si>
+    <t>Avnish</t>
+  </si>
+  <si>
+    <t>pooja@matrixpartners.in</t>
+  </si>
+  <si>
+    <t>avnish@matrixpartners.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooja </t>
+  </si>
+  <si>
+    <t>Swarnima</t>
+  </si>
+  <si>
+    <t>Nihilent analytics Team</t>
+  </si>
+  <si>
+    <t>Hiran</t>
+  </si>
+  <si>
+    <t>Saran Kumar</t>
+  </si>
+  <si>
+    <t>Aditya Jain</t>
+  </si>
+  <si>
+    <t>Sudhanshu</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshma </t>
+  </si>
+  <si>
+    <t>Realbox Team</t>
+  </si>
+  <si>
+    <t>Saif Partners Team</t>
+  </si>
+  <si>
+    <t>Tiger Analytics Team</t>
+  </si>
+  <si>
+    <t>tLabs Team</t>
+  </si>
+  <si>
+    <t>Trendwise Analytics Team</t>
+  </si>
+  <si>
+    <t>Trendwise Analytics</t>
+  </si>
+  <si>
+    <t>Uber Team</t>
+  </si>
+  <si>
+    <t>Web Greay routes Team</t>
+  </si>
+  <si>
+    <t>rashmi.poovaiah@clustr.co.in</t>
+  </si>
+  <si>
+    <t>D Krishna Sundar</t>
+  </si>
+  <si>
+    <t>Fauzia Khan</t>
+  </si>
+  <si>
+    <t>fauzia.khan@syfe.com</t>
+  </si>
+  <si>
+    <t>Syfe</t>
+  </si>
+  <si>
+    <t>rajesh.budhiraja@zomato.com</t>
+  </si>
+  <si>
+    <t>Zomato</t>
+  </si>
+  <si>
+    <t>Nancy Pairda</t>
+  </si>
+  <si>
+    <t>nancy@roxiler.com</t>
+  </si>
+  <si>
+    <t>Roxiler Systems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,6 +1985,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,9 +2029,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,21 +2383,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.69921875" customWidth="1"/>
-    <col min="2" max="2" width="35.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" customWidth="1"/>
+    <col min="1" max="1" width="45.09765625" customWidth="1"/>
+    <col min="2" max="2" width="50.09765625" customWidth="1"/>
+    <col min="3" max="3" width="40.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -460,13 +2419,2884 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{136EDEA7-5A38-448D-95C0-78B2CDDA396C}"/>
+    <hyperlink ref="C4" r:id="rId1" display="dipti.lalwani@ftcash.com" xr:uid="{6003818C-4C72-4491-AD7D-E1D9D111D7DE}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{E12E8595-3550-4975-B54E-C50CB8AB17BC}"/>
+    <hyperlink ref="C5" r:id="rId3" display="muskan@thehosteller.com" xr:uid="{D183CBEC-D833-4ADC-8F12-F632D98AF5C7}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{651A7A04-8F5E-4F37-B0E6-5E0282B1CEF2}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{438D4EE1-40FD-431D-AD8B-ADDA2E779902}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{F90171CB-E48C-41D0-B0C8-29771D8A3CAF}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{D02F5608-179D-4A74-B314-9DF12D89D65C}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{DEE7A889-FC41-401C-B257-004EA0787FDA}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{A347085C-1D05-40F1-AA32-F8CC922E4C4B}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{E429E0CD-9527-43BC-BB5F-24EA0C58D9AF}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{18E8D6AD-6F12-4510-AAFA-D937DF91CE6C}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{882DC0DA-71E1-4433-A8B3-8850503B3B66}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{43261807-7003-490A-A4C0-2591E59F4EEC}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{231976BE-023C-4161-BAA1-5EFAEF5EDF6A}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{4EDD4175-7E9C-478C-8762-8010820F274A}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{928AEFC0-AC8D-4FA3-84AD-CBC8CF31667F}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{D181E639-71BE-40F2-8E16-9C5B4B695A6D}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{CC544CA0-F36B-444C-A5CC-964C8A4F5B98}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{E8EB27C8-FA69-4667-8588-408D10C4958F}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{8B327DF7-8E17-4E89-AA08-99AA74F0F575}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{A678C704-6ADE-4124-A0D4-C546F546FE68}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{4502A4EA-3B55-4BB1-B001-BC298159146D}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{95F11465-4482-4BC9-98B5-D577E0BC8DBB}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{2DD39886-6053-42D2-AB76-C1DE1CDBFB80}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{E3CC67ED-54BE-4D57-A0F9-8D6AE5414D11}"/>
+    <hyperlink ref="B26" r:id="rId26" xr:uid="{A084AA76-7E6F-49C1-A7A9-DF60C7DF5E40}"/>
+    <hyperlink ref="B27" r:id="rId27" xr:uid="{91ADD707-3684-494B-9B44-00B80A3C7000}"/>
+    <hyperlink ref="B28" r:id="rId28" xr:uid="{B0B9FFBF-DE0A-403C-B7B2-D5C6C903F61D}"/>
+    <hyperlink ref="B29" r:id="rId29" xr:uid="{C97DE481-8439-41AF-A72D-FA45C1B5C4FA}"/>
+    <hyperlink ref="B30" r:id="rId30" xr:uid="{F67FF8E9-AAF5-4691-B7F6-4E8217C0D50A}"/>
+    <hyperlink ref="B31" r:id="rId31" xr:uid="{D879F687-C62F-45C7-A2FE-669AEFD2F98F}"/>
+    <hyperlink ref="B32" r:id="rId32" xr:uid="{23B199D6-415A-43E8-A981-FD93DAC7CD24}"/>
+    <hyperlink ref="B33" r:id="rId33" xr:uid="{F97AAFBE-C964-4F14-85C7-462963185B0E}"/>
+    <hyperlink ref="B34" r:id="rId34" xr:uid="{36B07391-BDF5-4E94-9E40-8657F7DF89BC}"/>
+    <hyperlink ref="B35" r:id="rId35" xr:uid="{651362F0-55C9-4689-BCA4-9E4395AD01B6}"/>
+    <hyperlink ref="B36" r:id="rId36" xr:uid="{CF83119E-B91B-4B29-9A33-9746EC8CEB1F}"/>
+    <hyperlink ref="B37" r:id="rId37" xr:uid="{C4FCCBDB-E21B-48B2-9E5C-EC39E06824ED}"/>
+    <hyperlink ref="B38" r:id="rId38" xr:uid="{69592BE4-5184-4C0C-8F84-E0AAFE5B584E}"/>
+    <hyperlink ref="B39" r:id="rId39" xr:uid="{413A4036-2C00-4688-9F0C-683B026A195F}"/>
+    <hyperlink ref="B40" r:id="rId40" xr:uid="{41A4B202-A492-4168-A093-956698C63913}"/>
+    <hyperlink ref="B41" r:id="rId41" xr:uid="{F9985722-473C-401D-9945-F69D6F3E3F77}"/>
+    <hyperlink ref="B42" r:id="rId42" xr:uid="{7CDBE3AE-0D04-4437-A8AD-C5F4565B2451}"/>
+    <hyperlink ref="B43" r:id="rId43" xr:uid="{76CD7B69-2DE4-493C-B048-37B70989A422}"/>
+    <hyperlink ref="B44" r:id="rId44" xr:uid="{61F4B2A9-418B-4771-8C9E-C387FFE4C622}"/>
+    <hyperlink ref="B45" r:id="rId45" xr:uid="{C1BA0F17-235D-4893-9583-964F30BFA31A}"/>
+    <hyperlink ref="B46" r:id="rId46" xr:uid="{16541888-B0B2-4B6A-A030-8D5840874017}"/>
+    <hyperlink ref="B47" r:id="rId47" xr:uid="{16BC8280-BD03-47A2-A424-319CD23612DE}"/>
+    <hyperlink ref="B48" r:id="rId48" xr:uid="{0C018F58-D16E-464B-AF5E-D592D3ED5CD6}"/>
+    <hyperlink ref="B49" r:id="rId49" xr:uid="{845187C7-981B-4AA7-9088-D5BCAA80CCDD}"/>
+    <hyperlink ref="B50" r:id="rId50" xr:uid="{EB0CFE7A-A4CD-4984-9FBD-354CC8705AD1}"/>
+    <hyperlink ref="B51" r:id="rId51" xr:uid="{306B1253-4631-4CA2-8226-F7148EBEF8A3}"/>
+    <hyperlink ref="B52" r:id="rId52" xr:uid="{87324E4B-108C-4440-9F0E-BE5F2A080D6C}"/>
+    <hyperlink ref="B53" r:id="rId53" xr:uid="{D4F0C0D6-C948-4EF2-A405-B5BA8F2CE033}"/>
+    <hyperlink ref="B54" r:id="rId54" xr:uid="{1E718DC9-CDBE-46E0-827A-F1ECD79E1377}"/>
+    <hyperlink ref="B55" r:id="rId55" xr:uid="{0FFC1352-DA2D-4A63-8755-47916FAA0F90}"/>
+    <hyperlink ref="B56" r:id="rId56" xr:uid="{59452872-2EC4-4A24-B0A9-64F146DD349F}"/>
+    <hyperlink ref="B57" r:id="rId57" xr:uid="{A40F06C6-1551-4648-B2FD-AAC66BF3728B}"/>
+    <hyperlink ref="B58" r:id="rId58" xr:uid="{8A80B2C3-1C68-4B24-929B-364761A9B9E5}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{0C099A30-219D-4B8F-9CA2-4B348C67743D}"/>
+    <hyperlink ref="B59" r:id="rId60" xr:uid="{DAAAC27A-969B-4440-9E12-5020671A4092}"/>
+    <hyperlink ref="B61" r:id="rId61" xr:uid="{DF065CCD-4617-46F7-99F2-6A0CF654AF4F}"/>
+    <hyperlink ref="B62" r:id="rId62" xr:uid="{2E07B791-31C0-4D55-84B8-C3FD3BE2E03A}"/>
+    <hyperlink ref="B63" r:id="rId63" xr:uid="{744EF4BF-7411-49CB-AFD7-4FB21CE12FD2}"/>
+    <hyperlink ref="B64" r:id="rId64" xr:uid="{D69D4276-A040-4316-AD83-9A86A7416587}"/>
+    <hyperlink ref="B65" r:id="rId65" xr:uid="{3C2226E8-09B8-41EA-B2C3-075CD1F92534}"/>
+    <hyperlink ref="B66" r:id="rId66" xr:uid="{0BBDE389-8CF2-482B-A904-75325E5219D7}"/>
+    <hyperlink ref="B67" r:id="rId67" xr:uid="{3380C9D4-E699-4395-8848-8158928F3BE2}"/>
+    <hyperlink ref="B68" r:id="rId68" xr:uid="{1E027708-E0FE-42FF-9775-BA3DE79EDEDD}"/>
+    <hyperlink ref="B69" r:id="rId69" xr:uid="{26D2D256-9548-47E4-B2F5-90E953758BB2}"/>
+    <hyperlink ref="B70" r:id="rId70" xr:uid="{42623F6E-F0E9-4E93-BC92-93A2142CE19D}"/>
+    <hyperlink ref="B71" r:id="rId71" xr:uid="{4DBB0E9D-6673-49A5-B41F-CE095D58E74E}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{2B66804B-F226-4BB7-8937-585CDAE5AADE}"/>
+    <hyperlink ref="B72" r:id="rId73" xr:uid="{C1929E95-6C18-4331-B4ED-3CD3AEDE1C60}"/>
+    <hyperlink ref="B73" r:id="rId74" xr:uid="{2F0F79CB-7F2B-4569-8796-0638FF840CB3}"/>
+    <hyperlink ref="B75" r:id="rId75" xr:uid="{BBD54FEA-A8C5-4D45-8D7C-7B11B1B7F7E5}"/>
+    <hyperlink ref="B76" r:id="rId76" xr:uid="{D920082A-ABF8-4000-B66D-232A22DE0760}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{3FC531BC-EC79-4228-B6C0-0CC1D6BD4D0B}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{7ED3824B-D56B-4B5A-A3D9-22D55C62752E}"/>
+    <hyperlink ref="B77" r:id="rId79" xr:uid="{A5C85F95-E516-41A9-B625-0DF4832E1BD1}"/>
+    <hyperlink ref="B80" r:id="rId80" xr:uid="{18BABAD2-C758-44A5-B03A-F6B5EE86DF20}"/>
+    <hyperlink ref="B81" r:id="rId81" xr:uid="{82169D6F-6CB3-40F2-AA9F-F62E35272FA5}"/>
+    <hyperlink ref="B82" r:id="rId82" xr:uid="{B27A8B4C-3276-432D-AEA3-5AFAC2911A92}"/>
+    <hyperlink ref="B83" r:id="rId83" xr:uid="{270ED628-628A-4500-8E8F-88C91C864B51}"/>
+    <hyperlink ref="B84" r:id="rId84" xr:uid="{C3E907A3-A2A1-4EBB-B29B-94F9B2D61911}"/>
+    <hyperlink ref="B85" r:id="rId85" xr:uid="{32245DD6-A19B-48D6-AAC7-C66889602443}"/>
+    <hyperlink ref="B86" r:id="rId86" xr:uid="{DB7977D4-0984-46E5-B9EF-4E49C93A079C}"/>
+    <hyperlink ref="B87" r:id="rId87" xr:uid="{7B4CDE71-E2CB-4D10-A782-F644541FAD54}"/>
+    <hyperlink ref="B88" r:id="rId88" xr:uid="{ECCCFB97-6C9E-43AD-AE48-2643F2D86CE2}"/>
+    <hyperlink ref="B89" r:id="rId89" xr:uid="{204D1BCB-902F-4709-B3E3-BCB31171E047}"/>
+    <hyperlink ref="B90" r:id="rId90" xr:uid="{385B82F3-1747-4FEA-BEFA-0094F4395291}"/>
+    <hyperlink ref="B91" r:id="rId91" xr:uid="{DCA2DE0B-9D84-4C84-B22E-7BB176846A51}"/>
+    <hyperlink ref="B92" r:id="rId92" xr:uid="{89EB73A4-1927-4B31-B3A2-28AD968D686C}"/>
+    <hyperlink ref="B93" r:id="rId93" xr:uid="{D1FF8216-50B3-47C0-8FFB-55AE10C35EF8}"/>
+    <hyperlink ref="B94" r:id="rId94" xr:uid="{AC5C1544-5047-4246-9734-A0BE9500E07F}"/>
+    <hyperlink ref="B95" r:id="rId95" xr:uid="{93ABDA43-D64D-4E32-8D08-9E6E9782705D}"/>
+    <hyperlink ref="B96" r:id="rId96" xr:uid="{7568CA22-5005-40AD-A642-F7179107AD58}"/>
+    <hyperlink ref="B97" r:id="rId97" xr:uid="{81D83DAA-0D52-44EB-938B-FE1A15182EBD}"/>
+    <hyperlink ref="B98" r:id="rId98" xr:uid="{2AB2375E-D9AC-4A88-81E3-2B668676E22E}"/>
+    <hyperlink ref="B99" r:id="rId99" xr:uid="{D95CC655-BAC5-40D8-B9F7-A2F7F64E9FA2}"/>
+    <hyperlink ref="B100" r:id="rId100" xr:uid="{30D36FA6-0153-43D0-A90E-955FF0B84038}"/>
+    <hyperlink ref="B101" r:id="rId101" xr:uid="{964A223E-75C7-4B26-9032-D189B0551A87}"/>
+    <hyperlink ref="B102" r:id="rId102" xr:uid="{8B03F7FF-4274-4ADA-8ED0-ACBBD98A2D6D}"/>
+    <hyperlink ref="B103" r:id="rId103" xr:uid="{9527EFA1-EE6F-4EA5-844D-CD6B5CBEDFFB}"/>
+    <hyperlink ref="B104" r:id="rId104" xr:uid="{CD477206-04FF-4E74-A8EC-3776D722760E}"/>
+    <hyperlink ref="B105" r:id="rId105" xr:uid="{2D7FE53B-9EAB-45F5-817E-E992E072B5A9}"/>
+    <hyperlink ref="B106" r:id="rId106" xr:uid="{F68BEB6C-C68F-43C1-9010-8B1A58F4A833}"/>
+    <hyperlink ref="B107" r:id="rId107" xr:uid="{A1576DA2-A2AD-499C-88B0-5B3A2E945A2E}"/>
+    <hyperlink ref="C194" r:id="rId108" xr:uid="{217A9B91-6986-4EB3-ACFF-7731BFF93ED6}"/>
+    <hyperlink ref="C191" r:id="rId109" xr:uid="{B3117271-EE64-4981-8B7A-081E305656ED}"/>
+    <hyperlink ref="C190" r:id="rId110" xr:uid="{6246D3BE-40AC-4C78-9C57-39D862740E72}"/>
+    <hyperlink ref="C142" r:id="rId111" xr:uid="{894BCB3C-EED7-43F1-AC73-55182A01B363}"/>
+    <hyperlink ref="B109" r:id="rId112" xr:uid="{1317317D-AB15-4477-867C-6D73DAE019DD}"/>
+    <hyperlink ref="B110" r:id="rId113" xr:uid="{0EAB3FC0-D8FC-45D7-8EB3-E555E88159B6}"/>
+    <hyperlink ref="B111" r:id="rId114" xr:uid="{BAC9441C-E84D-4442-B828-CEE9B4CAAE77}"/>
+    <hyperlink ref="B140" r:id="rId115" xr:uid="{082047DB-E54E-474C-9E30-F15E901F1FBB}"/>
+    <hyperlink ref="B181" r:id="rId116" xr:uid="{2695D903-170D-4350-A1C0-2097633F45EC}"/>
+    <hyperlink ref="B182" r:id="rId117" xr:uid="{94C1CC58-57DE-4DEB-B70D-A973FA03DFB7}"/>
+    <hyperlink ref="B186" r:id="rId118" xr:uid="{77457BB5-9720-4AF0-9B5F-A6204DDB2B93}"/>
+    <hyperlink ref="B112" r:id="rId119" xr:uid="{64C091A3-C026-4A7F-B19C-680E109F0D30}"/>
+    <hyperlink ref="B113" r:id="rId120" xr:uid="{6540EB69-C362-416D-9554-3E07BC54766B}"/>
+    <hyperlink ref="B114" r:id="rId121" xr:uid="{1A593DF1-D2DF-4298-897B-021B2E58065A}"/>
+    <hyperlink ref="B115" r:id="rId122" xr:uid="{78A3ACB4-2432-4C36-9FB0-AB5A8DE8429F}"/>
+    <hyperlink ref="B116" r:id="rId123" xr:uid="{5CFA8416-46A9-4058-99CE-8673683FE071}"/>
+    <hyperlink ref="B117" r:id="rId124" xr:uid="{36C80143-93BA-4073-9530-83054432DCE5}"/>
+    <hyperlink ref="B210" r:id="rId125" xr:uid="{55D56294-B544-4C0A-A202-87EAFAE87847}"/>
+    <hyperlink ref="B211" r:id="rId126" xr:uid="{07511F69-9819-4D5E-A2DC-1A0C52E43392}"/>
+    <hyperlink ref="B213" r:id="rId127" xr:uid="{8A712137-248E-4ECA-8F93-D0E137AA7DB3}"/>
+    <hyperlink ref="B212" r:id="rId128" xr:uid="{4B4EC9FF-339F-4C03-ABBB-576FEE1D22CD}"/>
+    <hyperlink ref="B214" r:id="rId129" xr:uid="{72D80563-CE46-41D3-9A56-469821068A10}"/>
+    <hyperlink ref="B215" r:id="rId130" xr:uid="{6A8C7103-C7FC-483D-864F-1A9CAED9B199}"/>
+    <hyperlink ref="B236" r:id="rId131" xr:uid="{0A03F7A6-9304-4D49-A972-1326C4629A15}"/>
+    <hyperlink ref="B235" r:id="rId132" xr:uid="{2029C1D4-62B1-475A-B63B-E0DEA6B22D61}"/>
+    <hyperlink ref="B234" r:id="rId133" xr:uid="{275AB998-D016-449E-B70C-9D8DCC686929}"/>
+    <hyperlink ref="B233" r:id="rId134" xr:uid="{0777142D-DBA1-461E-89D4-3B6268DA710C}"/>
+    <hyperlink ref="B232" r:id="rId135" xr:uid="{521867D2-268E-41E8-89AD-6587D540C3AC}"/>
+    <hyperlink ref="B118" r:id="rId136" xr:uid="{044A24F0-72D1-4F7F-A0C0-604881220E3C}"/>
+    <hyperlink ref="B119" r:id="rId137" xr:uid="{CB2C5695-88A7-4239-9151-E224E5F03D94}"/>
+    <hyperlink ref="B120" r:id="rId138" xr:uid="{876EBACF-E49C-435C-8562-EF0EBC61471C}"/>
+    <hyperlink ref="B121" r:id="rId139" xr:uid="{567FCA33-6F82-4EC4-A59F-EDEA475F55EF}"/>
+    <hyperlink ref="B123" r:id="rId140" xr:uid="{7081F530-FF62-40DF-88EB-F4D23F5B7CC6}"/>
+    <hyperlink ref="B122" r:id="rId141" xr:uid="{075716EE-4B7B-4AB9-9710-F35421AF7180}"/>
+    <hyperlink ref="B231" r:id="rId142" xr:uid="{BCE16AA1-B111-426B-A2CB-C04851E4FB66}"/>
+    <hyperlink ref="B230" r:id="rId143" xr:uid="{8E970C06-171B-4F59-8BA2-EED4A0ACBCDD}"/>
+    <hyperlink ref="B229" r:id="rId144" xr:uid="{74BA5726-84BA-44F2-9B37-F9CED83C63D9}"/>
+    <hyperlink ref="B228" r:id="rId145" xr:uid="{6AF04DF3-20EB-4478-8160-B0456FB025AA}"/>
+    <hyperlink ref="B227" r:id="rId146" xr:uid="{71272239-0A7C-4DFC-B416-787701318606}"/>
+    <hyperlink ref="B226" r:id="rId147" xr:uid="{E9031317-7406-49B5-80C6-D719DD53A79E}"/>
+    <hyperlink ref="B225" r:id="rId148" xr:uid="{12A9AD2E-CFF1-4170-B78C-7A89352E56E9}"/>
+    <hyperlink ref="B224" r:id="rId149" xr:uid="{779193BF-C4A3-422A-B299-FD02EF7D3F47}"/>
+    <hyperlink ref="B223" r:id="rId150" xr:uid="{CE250978-2E2B-4335-B77E-0C3AC6E8FE35}"/>
+    <hyperlink ref="B222" r:id="rId151" xr:uid="{871C7B48-670F-46D8-A5E2-5245FD5A0014}"/>
+    <hyperlink ref="B221" r:id="rId152" xr:uid="{DF7FC97A-66EA-4993-B858-F9EA38B8D399}"/>
+    <hyperlink ref="B220" r:id="rId153" xr:uid="{46DB851F-68CE-4554-8C0F-6E3467BC0B73}"/>
+    <hyperlink ref="B219" r:id="rId154" xr:uid="{9943B9B2-118E-474B-98B6-9913CFAB7A04}"/>
+    <hyperlink ref="B218" r:id="rId155" xr:uid="{B897E363-96E8-4031-A770-17A13BB3E499}"/>
+    <hyperlink ref="B217" r:id="rId156" xr:uid="{6B60D3CF-444E-4724-A973-6189D9115B98}"/>
+    <hyperlink ref="B216" r:id="rId157" xr:uid="{2A24D469-AF03-4042-87AF-AB480AB2E81A}"/>
+    <hyperlink ref="B209" r:id="rId158" xr:uid="{BE3348B6-4C4D-4437-92D5-C4DD9E874773}"/>
+    <hyperlink ref="B207" r:id="rId159" xr:uid="{A4EF5DB0-9F1E-482F-8191-4849BC64BC8C}"/>
+    <hyperlink ref="B208" r:id="rId160" xr:uid="{C2909472-E50F-4CDF-847F-A21455F6F4BA}"/>
+    <hyperlink ref="B206" r:id="rId161" xr:uid="{3C6B69E7-4FD0-44F5-924F-A19531D26EF6}"/>
+    <hyperlink ref="B205" r:id="rId162" xr:uid="{6199368A-A411-41BF-A0DD-9CBE52E816DF}"/>
+    <hyperlink ref="B204" r:id="rId163" xr:uid="{7550469E-BA84-4322-9AF3-DD7BA73F412A}"/>
+    <hyperlink ref="B203" r:id="rId164" xr:uid="{6FA7D452-78E1-45E0-BBD2-2EFF61167207}"/>
+    <hyperlink ref="B202" r:id="rId165" xr:uid="{8B6CDFE1-3D0C-414B-9F48-DDA26ABDF3AC}"/>
+    <hyperlink ref="B201" r:id="rId166" xr:uid="{8685E375-8A8C-4B20-BFFB-DBA74B85E7DE}"/>
+    <hyperlink ref="B200" r:id="rId167" xr:uid="{354C43AC-A324-41FB-A5F1-DCE595B08EE9}"/>
+    <hyperlink ref="B199" r:id="rId168" xr:uid="{C52233AF-9352-45B9-841D-F0AC44B7D1E3}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{7B780020-B5E2-450B-8991-3E49468526D9}"/>
+    <hyperlink ref="B197" r:id="rId170" xr:uid="{D0F6D70E-1E5A-4093-94C6-EB7E25A1DBB0}"/>
+    <hyperlink ref="B196" r:id="rId171" xr:uid="{5D652FBA-04B4-4B86-8CAC-75890086C673}"/>
+    <hyperlink ref="B195" r:id="rId172" xr:uid="{9F4D74A3-850D-474A-B3F5-FFC347F76C43}"/>
+    <hyperlink ref="B194" r:id="rId173" xr:uid="{7F587BDC-DE45-45A3-92BC-33905BCC6B4A}"/>
+    <hyperlink ref="B193" r:id="rId174" xr:uid="{39E530F1-FD03-4A24-8AE9-10EAC4C5595B}"/>
+    <hyperlink ref="B192" r:id="rId175" xr:uid="{34438321-5D76-491F-80DF-D9E228753F8F}"/>
+    <hyperlink ref="B191" r:id="rId176" xr:uid="{01093633-79CF-4992-BC44-EF58AF359D5E}"/>
+    <hyperlink ref="B190" r:id="rId177" xr:uid="{40CE3D4A-82A7-4D8B-B3BC-CE420D410289}"/>
+    <hyperlink ref="B189" r:id="rId178" xr:uid="{9E4DD8D1-5F53-496D-9CB5-47309B4CAF41}"/>
+    <hyperlink ref="B188" r:id="rId179" xr:uid="{AD169120-A010-4C44-8ADB-9E99A03A2689}"/>
+    <hyperlink ref="B187" r:id="rId180" xr:uid="{253124FE-A9EF-4220-9D31-4BF3CA98B389}"/>
+    <hyperlink ref="B185" r:id="rId181" xr:uid="{E6AA872A-70BC-429C-A62B-F823CF260409}"/>
+    <hyperlink ref="B184" r:id="rId182" xr:uid="{5275C8B8-157C-4CCE-8710-C58E971C0F03}"/>
+    <hyperlink ref="B183" r:id="rId183" xr:uid="{6CDCB1BD-BDDE-40FD-A54A-0F8F04665F7A}"/>
+    <hyperlink ref="B180" r:id="rId184" xr:uid="{A9C99EAE-2CD3-4682-8D96-10AE05779A38}"/>
+    <hyperlink ref="B179" r:id="rId185" xr:uid="{10D76493-4BF6-46EE-9C5C-761572139F19}"/>
+    <hyperlink ref="B178" r:id="rId186" xr:uid="{CF5A3DBD-673A-4A2A-972A-616DB894F177}"/>
+    <hyperlink ref="B177" r:id="rId187" xr:uid="{A857D19F-BF67-41BB-9556-BAC6F4A7D62A}"/>
+    <hyperlink ref="B176" r:id="rId188" xr:uid="{E05F19F7-AEB5-4838-BD69-6C24C8E59862}"/>
+    <hyperlink ref="B175" r:id="rId189" xr:uid="{D3C67E9D-291A-40F7-8922-2616DA5D310C}"/>
+    <hyperlink ref="B174" r:id="rId190" xr:uid="{37F48729-4CF5-47E2-B305-57E6EEEC1927}"/>
+    <hyperlink ref="B173" r:id="rId191" xr:uid="{D201D6C8-8C88-4757-B9ED-46BCB74C39DB}"/>
+    <hyperlink ref="B172" r:id="rId192" xr:uid="{01A0C251-E25F-4FDC-AC32-354AF237B87F}"/>
+    <hyperlink ref="B171" r:id="rId193" xr:uid="{97D17063-2BE8-49AA-B4DD-0B738456F4F6}"/>
+    <hyperlink ref="B170" r:id="rId194" xr:uid="{3C8DE908-FCEB-410C-964C-7D3303DD7FC1}"/>
+    <hyperlink ref="B124" r:id="rId195" xr:uid="{D4F5BBF7-7E3F-46E0-910A-BE1F652ABC76}"/>
+    <hyperlink ref="B125" r:id="rId196" xr:uid="{E7B0EA22-9F3E-4BFA-8E22-B1C2893BA9DC}"/>
+    <hyperlink ref="B127" r:id="rId197" xr:uid="{A67CB1B3-420E-441F-8388-033ABAEF6D06}"/>
+    <hyperlink ref="B126" r:id="rId198" xr:uid="{7A444DC1-3BC1-4E1E-8D51-312AA3A55E6A}"/>
+    <hyperlink ref="B128" r:id="rId199" xr:uid="{70A232F0-0A75-4A26-A355-A4AC2D94BD42}"/>
+    <hyperlink ref="B129" r:id="rId200" xr:uid="{8DC40FE9-D413-4C22-B030-9B6FF58328EE}"/>
+    <hyperlink ref="B130" r:id="rId201" xr:uid="{22852FC9-54F9-41CD-97E7-6D21B7D56C51}"/>
+    <hyperlink ref="B169" r:id="rId202" xr:uid="{F5EE5584-E7A4-4D41-833F-6D968FD32110}"/>
+    <hyperlink ref="B168" r:id="rId203" xr:uid="{D6F50F07-0BF1-49C5-B656-91C093CF4674}"/>
+    <hyperlink ref="B167" r:id="rId204" xr:uid="{5BCC6E8A-2DC5-4CE7-AD18-1D422AAC2F64}"/>
+    <hyperlink ref="B166" r:id="rId205" xr:uid="{28E6F28E-B0DD-4336-8700-05B9ED646799}"/>
+    <hyperlink ref="B165" r:id="rId206" xr:uid="{A42A6FAA-0E43-42E3-A079-2CCBE335152B}"/>
+    <hyperlink ref="B164" r:id="rId207" xr:uid="{35FE0371-9667-482F-B8CE-BA66A2A6983B}"/>
+    <hyperlink ref="B131" r:id="rId208" xr:uid="{82B44639-F879-4C4F-9702-83EE2128B3DE}"/>
+    <hyperlink ref="B132" r:id="rId209" xr:uid="{7BE77F60-9B86-4C51-9AC5-8D533CAE08BA}"/>
+    <hyperlink ref="B133" r:id="rId210" xr:uid="{3841A10C-51C1-44D8-8F92-FF70BC8960B4}"/>
+    <hyperlink ref="B134" r:id="rId211" xr:uid="{A9A7E049-63AD-4CC8-9CC7-F846A83DC7AB}"/>
+    <hyperlink ref="B135" r:id="rId212" xr:uid="{ADEF23F2-2088-4C29-9952-8482903881B0}"/>
+    <hyperlink ref="B136" r:id="rId213" xr:uid="{1CAE4C9C-06FB-4F3A-B28A-8BCEDDA08198}"/>
+    <hyperlink ref="B137" r:id="rId214" xr:uid="{4C9FD6FD-75E0-4644-BBF1-0EBE5874A8AF}"/>
+    <hyperlink ref="B138" r:id="rId215" xr:uid="{6E14DCAA-9FB8-47E5-A0B4-825E5448A1F9}"/>
+    <hyperlink ref="B139" r:id="rId216" xr:uid="{EEF8115D-F95E-49B4-813A-2D534A56771E}"/>
+    <hyperlink ref="B141" r:id="rId217" xr:uid="{14768BD7-9C5C-4053-8D64-284442E2F9A9}"/>
+    <hyperlink ref="B142" r:id="rId218" xr:uid="{1E1358F3-2BF8-4B53-937E-80696BBB1CA1}"/>
+    <hyperlink ref="B143" r:id="rId219" xr:uid="{25057961-D358-4477-9CDC-143A213F9692}"/>
+    <hyperlink ref="B144" r:id="rId220" xr:uid="{758FB197-967A-4484-ACAF-91AD528CBEC7}"/>
+    <hyperlink ref="B146" r:id="rId221" xr:uid="{C6D675CA-3BE8-4F3C-A6BC-472CA824D12E}"/>
+    <hyperlink ref="B145" r:id="rId222" xr:uid="{F8624A45-E33D-438F-9564-822E92935EED}"/>
+    <hyperlink ref="B147" r:id="rId223" xr:uid="{8A371084-DBDC-4E83-B9A1-CF0EEBE42051}"/>
+    <hyperlink ref="B148" r:id="rId224" xr:uid="{4DF5EF34-B4D6-4C69-9E86-FF8B18826127}"/>
+    <hyperlink ref="B149" r:id="rId225" xr:uid="{375CF617-0DA6-4A24-97A6-B0A000BC6F36}"/>
+    <hyperlink ref="B150" r:id="rId226" xr:uid="{B456D0FE-BEE1-494C-8EA2-C43C9B6D6964}"/>
+    <hyperlink ref="B151" r:id="rId227" xr:uid="{CC8D420A-E0E6-4B41-83BB-C0C9C4F8E008}"/>
+    <hyperlink ref="B152" r:id="rId228" xr:uid="{3F9DB47C-5A15-4BC3-BC00-C8956E0152C2}"/>
+    <hyperlink ref="B153" r:id="rId229" xr:uid="{B057B7A4-352A-4B00-9A4D-5C934F53AE68}"/>
+    <hyperlink ref="B154" r:id="rId230" xr:uid="{F604D0FC-5CCE-4DBF-93FA-E0E460013BBE}"/>
+    <hyperlink ref="B155" r:id="rId231" xr:uid="{E29CA311-6E92-4F72-BE1E-98EABF2272D0}"/>
+    <hyperlink ref="B156" r:id="rId232" xr:uid="{5706B6ED-EF7F-45F3-AC57-9944C90C9CC4}"/>
+    <hyperlink ref="B157" r:id="rId233" xr:uid="{6BCC6310-81B1-4C76-AA64-9534165FCD7B}"/>
+    <hyperlink ref="B158" r:id="rId234" xr:uid="{1D5EA384-2138-4126-AD4A-7FCDCCDC32F3}"/>
+    <hyperlink ref="B159" r:id="rId235" xr:uid="{C5809983-6A36-4873-BC3E-1F44E19DC4C2}"/>
+    <hyperlink ref="B160" r:id="rId236" xr:uid="{8927C78D-4713-4451-B0E5-5F22717F5C9D}"/>
+    <hyperlink ref="B161" r:id="rId237" xr:uid="{9F046238-4B05-402A-B7DC-B31802DB728B}"/>
+    <hyperlink ref="B162" r:id="rId238" xr:uid="{3512E55F-7D72-474C-91D3-4E828F90A8E3}"/>
+    <hyperlink ref="B163" r:id="rId239" xr:uid="{922AB0CD-862E-49CE-A928-71A671030758}"/>
+    <hyperlink ref="B237" r:id="rId240" xr:uid="{5053EFD7-7DB6-4820-8B0E-E71D8B36CEE0}"/>
+    <hyperlink ref="B238" r:id="rId241" xr:uid="{42EF4DCA-FD3C-4F3D-BC31-20929AF4BFF6}"/>
+    <hyperlink ref="B239" r:id="rId242" xr:uid="{C58C2C25-DC79-4349-8A3D-A8B133D2F240}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId243"/>
 </worksheet>
 </file>
--- a/recruiters.xlsx
+++ b/recruiters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\email-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE972F68-2992-44B8-B66E-0C63F9294F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80917AAC-2574-4997-86BA-D433C2C2E3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="645">
   <si>
     <t>Name</t>
   </si>
@@ -1964,6 +1964,33 @@
   </si>
   <si>
     <t>Roxiler Systems</t>
+  </si>
+  <si>
+    <t>Akanksha Gharde</t>
+  </si>
+  <si>
+    <t>akanksha.gharde@rupeek.com</t>
+  </si>
+  <si>
+    <t>Rupeek</t>
+  </si>
+  <si>
+    <t>Lancesoftt</t>
+  </si>
+  <si>
+    <t>Urvashi</t>
+  </si>
+  <si>
+    <t>careers@askmeoffers.com</t>
+  </si>
+  <si>
+    <t>urvashi.p@lancesoft.in</t>
+  </si>
+  <si>
+    <t>Ask me offers</t>
+  </si>
+  <si>
+    <t>Hiring Team</t>
   </si>
 </sst>
 </file>
@@ -2384,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y239"/>
+  <dimension ref="A1:Y242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5046,6 +5073,39 @@
       </c>
       <c r="C239" s="6" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B242" t="s">
+        <v>641</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5292,11 +5352,13 @@
     <hyperlink ref="B237" r:id="rId240" xr:uid="{5053EFD7-7DB6-4820-8B0E-E71D8B36CEE0}"/>
     <hyperlink ref="B238" r:id="rId241" xr:uid="{42EF4DCA-FD3C-4F3D-BC31-20929AF4BFF6}"/>
     <hyperlink ref="B239" r:id="rId242" xr:uid="{C58C2C25-DC79-4349-8A3D-A8B133D2F240}"/>
+    <hyperlink ref="B240" r:id="rId243" xr:uid="{C5A9BBBC-B18F-497D-A45F-487D9F48BCE1}"/>
+    <hyperlink ref="B241" r:id="rId244" xr:uid="{B1500AFF-E4C4-4CD8-98AB-586DE0128382}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId243"/>
+  <legacyDrawing r:id="rId245"/>
 </worksheet>
 </file>